--- a/00_files/记账本.xlsx
+++ b/00_files/记账本.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torin/Documents/00/01_重要/00_git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torin/Documents/00/01_重要/noteDir/00_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D532818-56CE-6449-90CA-E0669C135319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0DED079-8FD1-684C-AE9B-275764A876C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16740" xr2:uid="{D98BEF89-93E4-5146-9D9C-A125164F9631}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="任务计划表" sheetId="1" r:id="rId1"/>
     <sheet name="账单" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,51 @@
   </si>
   <si>
     <t>晚上10点确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个人自助餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盲盒泡泡玛特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两套耳钉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个小毯子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺蛳粉5包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫粮0.4*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月27日 汇总</t>
+  </si>
+  <si>
+    <t>2月28日 汇总</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>洗头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳机充电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,6 +191,15 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -205,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,6 +292,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC73AD7-219E-F940-AD88-A08F7A89DF21}">
-  <dimension ref="B2:AK32"/>
+  <dimension ref="B1:AK36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -566,6 +626,11 @@
     <col min="37" max="37" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:37">
+      <c r="E1" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="2" spans="2:37">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -717,7 +782,7 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -758,7 +823,7 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -799,7 +864,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -840,7 +905,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -881,7 +946,7 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -922,7 +987,7 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -958,10 +1023,12 @@
       </c>
     </row>
     <row r="10" spans="2:37">
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -994,8 +1061,8 @@
       <c r="AI10" s="5"/>
     </row>
     <row r="11" spans="2:37">
-      <c r="B11" s="9" t="s">
-        <v>20</v>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1030,15 +1097,10 @@
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
-      <c r="AK11" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="12" spans="2:37">
-      <c r="B12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1071,15 +1133,10 @@
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
-      <c r="AK12" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="2:37">
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="8"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1112,15 +1169,10 @@
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
-      <c r="AK13" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="14" spans="2:37">
-      <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="8"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1153,12 +1205,11 @@
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
-      <c r="AK14" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="15" spans="2:37">
-      <c r="B15" s="5"/>
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1192,11 +1243,16 @@
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
+      <c r="AK15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="2:37">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1228,10 +1284,15 @@
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
-    </row>
-    <row r="17" spans="2:35">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="AK16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37">
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1264,11 +1325,16 @@
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
-    </row>
-    <row r="18" spans="2:35">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="AK17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37">
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1300,8 +1366,11 @@
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
-    </row>
-    <row r="19" spans="2:35">
+      <c r="AK18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1337,7 +1406,7 @@
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
     </row>
-    <row r="20" spans="2:35">
+    <row r="20" spans="2:37">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1373,7 +1442,7 @@
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
     </row>
-    <row r="21" spans="2:35">
+    <row r="21" spans="2:37">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1409,7 +1478,7 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
     </row>
-    <row r="22" spans="2:35">
+    <row r="22" spans="2:37">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1445,7 +1514,7 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
     </row>
-    <row r="23" spans="2:35">
+    <row r="23" spans="2:37">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1481,7 +1550,7 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
     </row>
-    <row r="24" spans="2:35">
+    <row r="24" spans="2:37">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1517,7 +1586,7 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
     </row>
-    <row r="25" spans="2:35">
+    <row r="25" spans="2:37">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1553,7 +1622,7 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
     </row>
-    <row r="26" spans="2:35">
+    <row r="26" spans="2:37">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1589,7 +1658,7 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
     </row>
-    <row r="27" spans="2:35">
+    <row r="27" spans="2:37">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1625,7 +1694,7 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
     </row>
-    <row r="28" spans="2:35">
+    <row r="28" spans="2:37">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1661,7 +1730,7 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
     </row>
-    <row r="29" spans="2:35">
+    <row r="29" spans="2:37">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1697,7 +1766,7 @@
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
     </row>
-    <row r="30" spans="2:35">
+    <row r="30" spans="2:37">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1733,7 +1802,7 @@
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
     </row>
-    <row r="31" spans="2:35">
+    <row r="31" spans="2:37">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1769,7 +1838,7 @@
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
     </row>
-    <row r="32" spans="2:35">
+    <row r="32" spans="2:37">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1805,6 +1874,150 @@
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
     </row>
+    <row r="33" spans="2:35">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+    </row>
+    <row r="34" spans="2:35">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+    </row>
+    <row r="35" spans="2:35">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+    </row>
+    <row r="36" spans="2:35">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -1815,13 +2028,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84A7F57-8E92-154C-9E2C-77198F78BB60}">
-  <dimension ref="B1:E6"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2"/>
   <cols>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
@@ -1840,7 +2053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" outlineLevel="2">
       <c r="B2" s="1">
         <v>44254</v>
       </c>
@@ -1854,7 +2067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" outlineLevel="2">
       <c r="B3" s="1">
         <v>44254</v>
       </c>
@@ -1868,7 +2081,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" outlineLevel="2">
       <c r="B4" s="1">
         <v>44254</v>
       </c>
@@ -1882,7 +2095,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" outlineLevel="2">
       <c r="B5" s="1">
         <v>44254</v>
       </c>
@@ -1896,15 +2109,135 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" outlineLevel="2">
+      <c r="B6" s="1">
+        <v>44254</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" outlineLevel="1">
+      <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <f>SUBTOTAL(9,E2:E6)</f>
+        <v>136.19999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" outlineLevel="2">
+      <c r="B8" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>23.89</v>
       </c>
     </row>
+    <row r="9" spans="2:5" outlineLevel="2">
+      <c r="B9" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" outlineLevel="2">
+      <c r="B10" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" outlineLevel="2">
+      <c r="B11" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" outlineLevel="2">
+      <c r="B12" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" outlineLevel="2">
+      <c r="B13" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" outlineLevel="1">
+      <c r="B14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <f>SUBTOTAL(9,E8:E13)</f>
+        <v>405.59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <f>SUBTOTAL(9,E2:E13)</f>
+        <v>541.78999999999985</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E18">
+    <sortCondition ref="B2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/00_files/记账本.xlsx
+++ b/00_files/记账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torin/Documents/00/01_重要/noteDir/00_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0DED079-8FD1-684C-AE9B-275764A876C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F2D6F4-A884-A74D-8FC2-81EE8BDED457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16740" xr2:uid="{D98BEF89-93E4-5146-9D9C-A125164F9631}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,53 @@
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换内裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和家里视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车去医院做疫苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人情红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆布包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜子和电子秤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶坐垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送给笨笨小摆件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/3/1 汇总</t>
   </si>
 </sst>
 </file>
@@ -259,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +345,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC73AD7-219E-F940-AD88-A08F7A89DF21}">
-  <dimension ref="B1:AK36"/>
+  <dimension ref="B1:AK39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1099,10 +1152,12 @@
       <c r="AI11" s="5"/>
     </row>
     <row r="12" spans="2:37">
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1135,10 +1190,12 @@
       <c r="AI12" s="5"/>
     </row>
     <row r="13" spans="2:37">
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1171,8 +1228,10 @@
       <c r="AI13" s="5"/>
     </row>
     <row r="14" spans="2:37">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1207,9 +1266,7 @@
       <c r="AI14" s="5"/>
     </row>
     <row r="15" spans="2:37">
-      <c r="B15" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1243,16 +1300,11 @@
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
-      <c r="AK15" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="16" spans="2:37">
-      <c r="B16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1284,15 +1336,10 @@
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
-      <c r="AK16" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" spans="2:37">
-      <c r="B17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="8"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1325,16 +1372,13 @@
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
-      <c r="AK17" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="18" spans="2:37">
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1367,14 +1411,16 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
       <c r="AK18" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:37">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1405,10 +1451,15 @@
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
+      <c r="AK19" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:37">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1441,12 +1492,17 @@
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
+      <c r="AK20" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="2:37">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1477,6 +1533,9 @@
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
+      <c r="AK21" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="2:37">
       <c r="B22" s="5"/>
@@ -2018,6 +2077,114 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
     </row>
+    <row r="37" spans="2:35">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+    </row>
+    <row r="38" spans="2:35">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+    </row>
+    <row r="39" spans="2:35">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -2028,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84A7F57-8E92-154C-9E2C-77198F78BB60}">
-  <dimension ref="B1:E15"/>
+  <dimension ref="B1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2"/>
@@ -2225,17 +2392,138 @@
         <v>405.59</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="2:5" outlineLevel="2">
+      <c r="B15" s="13">
+        <v>44256.932638888888</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" outlineLevel="2">
+      <c r="B16" s="13">
+        <v>44256.932638888888</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" outlineLevel="2">
+      <c r="B17" s="13">
+        <v>44256.932638888888</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" outlineLevel="2">
+      <c r="B18" s="13">
+        <v>44256.932638888888</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" outlineLevel="2">
+      <c r="B19" s="13">
+        <v>44256.932638888888</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" outlineLevel="2">
+      <c r="B20" s="13">
+        <v>44256.932638888888</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" outlineLevel="2">
+      <c r="B21" s="13">
+        <v>44256.932638888888</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" outlineLevel="2">
+      <c r="B22" s="13">
+        <v>44256.932638888888</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22">
+        <v>10.82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" outlineLevel="1">
+      <c r="B23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <f>SUBTOTAL(9,E15:E22)</f>
+        <v>90.52000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E15">
-        <f>SUBTOTAL(9,E2:E13)</f>
-        <v>541.78999999999985</v>
+      <c r="E24">
+        <f>SUBTOTAL(9,E2:E22)</f>
+        <v>632.30999999999983</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E17">
     <sortCondition ref="B2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/00_files/记账本.xlsx
+++ b/00_files/记账本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torin/Documents/00/01_重要/noteDir/00_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A076F6B-1645-3D43-9934-EDC627A880B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFD7105-1A37-0F46-96C8-B922A93988DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16740" activeTab="2" xr2:uid="{D98BEF89-93E4-5146-9D9C-A125164F9631}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,22 @@
   </si>
   <si>
     <t>spark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意愿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +249,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="d"/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -324,7 +340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,10 +383,13 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2216,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5277244-3941-2A46-8EB5-AEBC8330C945}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2229,42 +2248,60 @@
     <col min="6" max="6" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="16">
+        <v>44256</v>
+      </c>
+      <c r="C2" s="16">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B5" s="13">
         <v>44256.965277777781</v>
       </c>
-      <c r="C2">
+      <c r="C5">
         <v>210</v>
       </c>
-      <c r="D2">
+      <c r="D5">
         <v>10</v>
       </c>
-      <c r="E2" s="12">
-        <f>D2/C2</f>
+      <c r="E5" s="12">
+        <f>D5/C5</f>
         <v>4.7619047619047616E-2</v>
       </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="13"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="E5">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2277,8 +2314,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="E4">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2287,6 +2324,32 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{1DC0D85E-1C62-A343-B068-67D1B27B5757}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0DB913E3-8D8A-C844-B1A4-90765566E837}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{976510A2-B371-8E43-B7BD-BBC04900A5DA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2308,7 +2371,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>E5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1DC0D85E-1C62-A343-B068-67D1B27B5757}">
@@ -2323,7 +2386,34 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E1</xm:sqref>
+          <xm:sqref>E4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0DB913E3-8D8A-C844-B1A4-90765566E837}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="middle">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor theme="5"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{976510A2-B371-8E43-B7BD-BBC04900A5DA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2333,10 +2423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84A7F57-8E92-154C-9E2C-77198F78BB60}">
-  <dimension ref="B1:E24"/>
+  <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2"/>
@@ -2345,7 +2435,7 @@
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:6">
       <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
@@ -2358,8 +2448,11 @@
       <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" outlineLevel="2">
+      <c r="F1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" outlineLevel="2">
       <c r="B2" s="14">
         <v>44254</v>
       </c>
@@ -2373,7 +2466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:5" outlineLevel="2">
+    <row r="3" spans="2:6" outlineLevel="2">
       <c r="B3" s="14">
         <v>44254</v>
       </c>
@@ -2387,7 +2480,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" outlineLevel="2">
+    <row r="4" spans="2:6" outlineLevel="2">
       <c r="B4" s="14">
         <v>44254</v>
       </c>
@@ -2401,7 +2494,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" outlineLevel="2">
+    <row r="5" spans="2:6" outlineLevel="2">
       <c r="B5" s="14">
         <v>44254</v>
       </c>
@@ -2415,7 +2508,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" outlineLevel="2">
+    <row r="6" spans="2:6" outlineLevel="2">
       <c r="B6" s="14">
         <v>44254</v>
       </c>
@@ -2428,8 +2521,11 @@
       <c r="E6">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" outlineLevel="1">
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" outlineLevel="1">
       <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
@@ -2438,7 +2534,7 @@
         <v>136.19999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:5" outlineLevel="2">
+    <row r="8" spans="2:6" outlineLevel="2">
       <c r="B8" s="14">
         <v>44255</v>
       </c>
@@ -2452,7 +2548,7 @@
         <v>23.89</v>
       </c>
     </row>
-    <row r="9" spans="2:5" outlineLevel="2">
+    <row r="9" spans="2:6" outlineLevel="2">
       <c r="B9" s="14">
         <v>44255</v>
       </c>
@@ -2465,8 +2561,11 @@
       <c r="E9">
         <v>158</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" outlineLevel="2">
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" outlineLevel="2">
       <c r="B10" s="14">
         <v>44255</v>
       </c>
@@ -2479,8 +2578,11 @@
       <c r="E10">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" outlineLevel="2">
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" outlineLevel="2">
       <c r="B11" s="14">
         <v>44255</v>
       </c>
@@ -2493,8 +2595,11 @@
       <c r="E11">
         <v>139</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" outlineLevel="2">
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" outlineLevel="2">
       <c r="B12" s="14">
         <v>44255</v>
       </c>
@@ -2508,7 +2613,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="13" spans="2:5" outlineLevel="2">
+    <row r="13" spans="2:6" outlineLevel="2">
       <c r="B13" s="14">
         <v>44255</v>
       </c>
@@ -2522,7 +2627,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="14" spans="2:5" outlineLevel="1">
+    <row r="14" spans="2:6" outlineLevel="1">
       <c r="B14" s="15" t="s">
         <v>28</v>
       </c>
@@ -2531,7 +2636,7 @@
         <v>405.59</v>
       </c>
     </row>
-    <row r="15" spans="2:5" outlineLevel="2">
+    <row r="15" spans="2:6" outlineLevel="2">
       <c r="B15" s="14">
         <v>44256.932638888888</v>
       </c>
@@ -2545,7 +2650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:5" outlineLevel="2">
+    <row r="16" spans="2:6" outlineLevel="2">
       <c r="B16" s="14">
         <v>44256.932638888888</v>
       </c>
@@ -2559,7 +2664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:5" outlineLevel="2">
+    <row r="17" spans="2:6" outlineLevel="2">
       <c r="B17" s="14">
         <v>44256.932638888888</v>
       </c>
@@ -2573,7 +2678,7 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="18" spans="2:5" outlineLevel="2">
+    <row r="18" spans="2:6" outlineLevel="2">
       <c r="B18" s="14">
         <v>44256.932638888888</v>
       </c>
@@ -2587,7 +2692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:5" outlineLevel="2">
+    <row r="19" spans="2:6" outlineLevel="2">
       <c r="B19" s="14">
         <v>44256.932638888888</v>
       </c>
@@ -2601,7 +2706,7 @@
         <v>9.31</v>
       </c>
     </row>
-    <row r="20" spans="2:5" outlineLevel="2">
+    <row r="20" spans="2:6" outlineLevel="2">
       <c r="B20" s="14">
         <v>44256.932638888888</v>
       </c>
@@ -2615,7 +2720,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:5" outlineLevel="2">
+    <row r="21" spans="2:6" outlineLevel="2">
       <c r="B21" s="14">
         <v>44256.932638888888</v>
       </c>
@@ -2629,7 +2734,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="22" spans="2:5" outlineLevel="2">
+    <row r="22" spans="2:6" outlineLevel="2">
       <c r="B22" s="14">
         <v>44256.932638888888</v>
       </c>
@@ -2642,8 +2747,11 @@
       <c r="E22">
         <v>10.82</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" outlineLevel="1">
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" outlineLevel="1">
       <c r="B23" s="11" t="s">
         <v>43</v>
       </c>
@@ -2652,7 +2760,7 @@
         <v>90.52000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:6">
       <c r="B24" s="11" t="s">
         <v>29</v>
       </c>

--- a/00_files/记账本.xlsx
+++ b/00_files/记账本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torin/Documents/00/01_重要/noteDir/00_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFD7105-1A37-0F46-96C8-B922A93988DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1C6BA9-7B07-344D-885D-28FEE4EEAF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16740" activeTab="2" xr2:uid="{D98BEF89-93E4-5146-9D9C-A125164F9631}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16740" activeTab="1" xr2:uid="{D98BEF89-93E4-5146-9D9C-A125164F9631}"/>
   </bookViews>
   <sheets>
     <sheet name="任务计划表" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班打卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班打卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +408,14 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/m/d\ h:mm"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -407,6 +426,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEBBB680-7E92-D841-B01C-91E1007A15E3}" name="表1" displayName="表1" ref="B4:F6" totalsRowShown="0">
+  <autoFilter ref="B4:F6" xr:uid="{9E25DBC6-4905-D644-A4C5-05A190B97D6E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{DC106A8B-2E70-164F-AB21-19AD350DD9E6}" name="计划进度"/>
+    <tableColumn id="2" xr3:uid="{C15ADE83-C6C4-874D-963F-A1E577A40090}" name="日期" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{116949EA-DB59-A14C-B9F8-2D40E071D3DD}" name="总量"/>
+    <tableColumn id="4" xr3:uid="{363AABFA-A649-7D4F-BA5F-D0E6E28D056B}" name="当前"/>
+    <tableColumn id="5" xr3:uid="{787238DD-71E2-0443-A5CE-9777311E9877}" name="进度" dataDxfId="0">
+      <calculatedColumnFormula>E5/D5</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -709,7 +744,7 @@
   <dimension ref="B1:AK39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -720,7 +755,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37">
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -876,7 +911,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -917,7 +952,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -999,7 +1034,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1040,7 +1075,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1081,7 +1116,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1306,11 +1341,13 @@
       <c r="AI14" s="4"/>
     </row>
     <row r="15" spans="2:37">
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1578,7 +1615,9 @@
       </c>
     </row>
     <row r="22" spans="2:37">
-      <c r="B22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2235,72 +2274,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5277244-3941-2A46-8EB5-AEBC8330C945}">
-  <dimension ref="A2:E14"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.1640625" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="16">
+      <c r="C2" s="16">
         <v>44256</v>
       </c>
-      <c r="C2" s="16">
+      <c r="D2" s="16">
         <v>44287</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="13">
+      <c r="C5" s="13">
         <v>44256.965277777781</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>210</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>10</v>
       </c>
-      <c r="E5" s="12">
-        <f>D5/C5</f>
+      <c r="F5" s="12">
+        <f>E5/D5</f>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="13"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="13"/>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="13">
+        <v>44257.397222222222</v>
+      </c>
+      <c r="D6">
+        <v>210</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="F6" s="12">
+        <f>E6/D6</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="C12" s="13"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="C14" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E5">
+  <conditionalFormatting sqref="F5:F6">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2314,7 +2375,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="F4">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2328,7 +2389,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="F12">
     <cfRule type="dataBar" priority="1">
       <dataBar showValue="0">
         <cfvo type="num" val="0"/>
@@ -2355,6 +2416,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -2371,7 +2435,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E5</xm:sqref>
+          <xm:sqref>F5:F6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1DC0D85E-1C62-A343-B068-67D1B27B5757}">
@@ -2386,7 +2450,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E4</xm:sqref>
+          <xm:sqref>F4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0DB913E3-8D8A-C844-B1A4-90765566E837}">
@@ -2413,7 +2477,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E12</xm:sqref>
+          <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2425,7 +2489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84A7F57-8E92-154C-9E2C-77198F78BB60}">
   <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>

--- a/00_files/记账本.xlsx
+++ b/00_files/记账本.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torin/Documents/00/01_重要/noteDir/00_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torin/Documents/00/01_重要/note/00_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1C6BA9-7B07-344D-885D-28FEE4EEAF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C4C36F-4E6B-994C-BB28-FF54070B718D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16740" activeTab="1" xr2:uid="{D98BEF89-93E4-5146-9D9C-A125164F9631}"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="28240" windowHeight="16740" xr2:uid="{D98BEF89-93E4-5146-9D9C-A125164F9631}"/>
   </bookViews>
   <sheets>
     <sheet name="任务计划表" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,15 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2月27日 汇总</t>
-  </si>
-  <si>
-    <t>2月28日 汇总</t>
-  </si>
-  <si>
-    <t>总计</t>
-  </si>
-  <si>
     <t>洗头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,9 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021/3/1 汇总</t>
-  </si>
-  <si>
     <t>计划进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,6 +234,25 @@
   </si>
   <si>
     <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗澡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u型枕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,9 +260,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -288,13 +290,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -352,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -386,9 +385,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -398,22 +394,42 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/m/d\ h:mm"/>
+      <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,16 +445,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEBBB680-7E92-D841-B01C-91E1007A15E3}" name="表1" displayName="表1" ref="B4:F6" totalsRowShown="0">
-  <autoFilter ref="B4:F6" xr:uid="{9E25DBC6-4905-D644-A4C5-05A190B97D6E}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEBBB680-7E92-D841-B01C-91E1007A15E3}" name="表1" displayName="表1" ref="B4:G8" totalsRowShown="0">
+  <autoFilter ref="B4:G8" xr:uid="{9E25DBC6-4905-D644-A4C5-05A190B97D6E}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DC106A8B-2E70-164F-AB21-19AD350DD9E6}" name="计划进度"/>
-    <tableColumn id="2" xr3:uid="{C15ADE83-C6C4-874D-963F-A1E577A40090}" name="日期" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{C15ADE83-C6C4-874D-963F-A1E577A40090}" name="日期" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{116949EA-DB59-A14C-B9F8-2D40E071D3DD}" name="总量"/>
     <tableColumn id="4" xr3:uid="{363AABFA-A649-7D4F-BA5F-D0E6E28D056B}" name="当前"/>
-    <tableColumn id="5" xr3:uid="{787238DD-71E2-0443-A5CE-9777311E9877}" name="进度" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{787238DD-71E2-0443-A5CE-9777311E9877}" name="进度" dataDxfId="3">
       <calculatedColumnFormula>E5/D5</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="6" xr3:uid="{6FDDFB85-5E81-DD4A-A310-092D3512078A}" name="列1" dataDxfId="2">
+      <calculatedColumnFormula>DATEDIF(C3,C5,"d")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C7FDD38-A356-8646-B60C-60A00A75FFE7}" name="表3" displayName="表3" ref="B2:F25" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B2:F25" xr:uid="{29A85DE2-5B7C-3F4E-BA1D-3F4CA08975D1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8D78F05A-392E-2343-9E4C-1EDF07C30FD9}" name="日期" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{EB3CC5F2-FA85-B54B-86E6-5D51654E6E12}" name="平台"/>
+    <tableColumn id="3" xr3:uid="{D7960125-6CB8-8B40-9790-C7BFBA960218}" name="事项"/>
+    <tableColumn id="4" xr3:uid="{FDB26B89-B714-D642-8F7D-9DFB81CF2CEC}" name="价格"/>
+    <tableColumn id="5" xr3:uid="{640675F4-C85B-074D-8B44-F0C32F8C4C6B}" name="类型"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -741,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC73AD7-219E-F940-AD88-A08F7A89DF21}">
-  <dimension ref="B1:AK39"/>
+  <dimension ref="B1:AK43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -756,7 +789,7 @@
   <sheetData>
     <row r="1" spans="2:37">
       <c r="F1" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="2:37">
@@ -1152,7 +1185,7 @@
     </row>
     <row r="10" spans="2:37">
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1190,12 +1223,12 @@
     </row>
     <row r="11" spans="2:37">
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1228,7 +1261,7 @@
     </row>
     <row r="12" spans="2:37">
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1266,7 +1299,7 @@
     </row>
     <row r="13" spans="2:37">
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1304,7 +1337,7 @@
     </row>
     <row r="14" spans="2:37">
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="4"/>
@@ -1342,7 +1375,7 @@
     </row>
     <row r="15" spans="2:37">
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1379,11 +1412,13 @@
       <c r="AI15" s="4"/>
     </row>
     <row r="16" spans="2:37">
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1451,9 +1486,7 @@
       <c r="AI17" s="4"/>
     </row>
     <row r="18" spans="2:37">
-      <c r="B18" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1487,17 +1520,12 @@
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
-      <c r="AK18" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="19" spans="2:37">
-      <c r="B19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1528,15 +1556,10 @@
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
-      <c r="AK19" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="2:37">
-      <c r="B20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1569,17 +1592,12 @@
       <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
-      <c r="AK20" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="21" spans="2:37">
-      <c r="B21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1610,13 +1628,10 @@
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
-      <c r="AK21" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="22" spans="2:37">
-      <c r="B22" s="4" t="s">
-        <v>54</v>
+      <c r="B22" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1651,13 +1666,18 @@
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
+      <c r="AK22" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="2:37">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1687,10 +1707,15 @@
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
+      <c r="AK23" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:37">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1723,12 +1748,17 @@
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
+      <c r="AK24" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="2:37">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1759,13 +1789,18 @@
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="4"/>
+      <c r="AK25" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="2:37">
-      <c r="B26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -2264,6 +2299,150 @@
       <c r="AH39" s="4"/>
       <c r="AI39" s="4"/>
     </row>
+    <row r="40" spans="2:35">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+    </row>
+    <row r="41" spans="2:35">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+    </row>
+    <row r="42" spans="2:35">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+    </row>
+    <row r="43" spans="2:35">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -2274,53 +2453,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5277244-3941-2A46-8EB5-AEBC8330C945}">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.1640625" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="16">
+        <v>45</v>
+      </c>
+      <c r="C2" s="14">
         <v>44256</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="14">
         <v>44287</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="13">
+        <v>44</v>
+      </c>
+      <c r="C5" s="15">
         <v>44256.965277777781</v>
       </c>
       <c r="D5">
@@ -2329,16 +2511,16 @@
       <c r="E5">
         <v>10</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <f>E5/D5</f>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="13">
+        <v>44</v>
+      </c>
+      <c r="C6" s="15">
         <v>44257.397222222222</v>
       </c>
       <c r="D6">
@@ -2347,21 +2529,65 @@
       <c r="E6">
         <v>28</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <f>E6/D6</f>
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="C12" s="13"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="C14" s="13"/>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="15">
+        <v>44257.567361111112</v>
+      </c>
+      <c r="D7">
+        <v>210</v>
+      </c>
+      <c r="E7">
+        <v>31</v>
+      </c>
+      <c r="F7" s="11">
+        <f>E7/D7</f>
+        <v>0.14761904761904762</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" ref="G5:G7" si="0">DATEDIF(C5,C7,"d")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="15">
+        <v>44257.944444444445</v>
+      </c>
+      <c r="D8">
+        <v>210</v>
+      </c>
+      <c r="E8">
+        <v>41</v>
+      </c>
+      <c r="F8" s="11">
+        <f>E8/D8</f>
+        <v>0.19523809523809524</v>
+      </c>
+      <c r="G8" s="17">
+        <f>DATEDIF(C6,C8,"d")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="C12" s="12"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="C14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F5:F6">
+  <conditionalFormatting sqref="F5:F8">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2435,7 +2661,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F5:F6</xm:sqref>
+          <xm:sqref>F5:F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1DC0D85E-1C62-A343-B068-67D1B27B5757}">
@@ -2487,119 +2713,116 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84A7F57-8E92-154C-9E2C-77198F78BB60}">
-  <dimension ref="B1:F24"/>
+  <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="5" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" outlineLevel="2">
-      <c r="B2" s="14">
+      <c r="F2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="13">
         <v>44254</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" outlineLevel="2">
-      <c r="B3" s="14">
-        <v>44254</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" outlineLevel="2">
-      <c r="B4" s="14">
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="13">
         <v>44254</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" outlineLevel="2">
-      <c r="B5" s="14">
+        <v>7.6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="13">
         <v>44254</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" outlineLevel="2">
-      <c r="B6" s="14">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="13">
         <v>44254</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="13">
+        <v>44254</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>96</v>
       </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" outlineLevel="1">
-      <c r="B7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <f>SUBTOTAL(9,E2:E6)</f>
-        <v>136.19999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" outlineLevel="2">
-      <c r="B8" s="14">
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="13">
         <v>44255</v>
       </c>
       <c r="C8" t="s">
@@ -2612,8 +2835,8 @@
         <v>23.89</v>
       </c>
     </row>
-    <row r="9" spans="2:6" outlineLevel="2">
-      <c r="B9" s="14">
+    <row r="9" spans="2:8">
+      <c r="B9" s="13">
         <v>44255</v>
       </c>
       <c r="C9" t="s">
@@ -2626,11 +2849,11 @@
         <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" outlineLevel="2">
-      <c r="B10" s="14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="13">
         <v>44255</v>
       </c>
       <c r="C10" t="s">
@@ -2643,11 +2866,11 @@
         <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" outlineLevel="2">
-      <c r="B11" s="14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="13">
         <v>44255</v>
       </c>
       <c r="C11" t="s">
@@ -2660,11 +2883,11 @@
         <v>139</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" outlineLevel="2">
-      <c r="B12" s="14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="13">
         <v>44255</v>
       </c>
       <c r="C12" t="s">
@@ -2677,8 +2900,8 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="13" spans="2:6" outlineLevel="2">
-      <c r="B13" s="14">
+    <row r="13" spans="2:8">
+      <c r="B13" s="13">
         <v>44255</v>
       </c>
       <c r="C13" t="s">
@@ -2691,153 +2914,179 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="14" spans="2:6" outlineLevel="1">
-      <c r="B14" s="15" t="s">
-        <v>28</v>
+    <row r="14" spans="2:8">
+      <c r="B14" s="13">
+        <v>44256.932638888888</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
       </c>
       <c r="E14">
-        <f>SUBTOTAL(9,E8:E13)</f>
-        <v>405.59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" outlineLevel="2">
-      <c r="B15" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="13">
         <v>44256.932638888888</v>
       </c>
       <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="13">
+        <v>44256.932638888888</v>
+      </c>
+      <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="13">
+        <v>44256.932638888888</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" outlineLevel="2">
-      <c r="B16" s="14">
-        <v>44256.932638888888</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" outlineLevel="2">
-      <c r="B17" s="14">
-        <v>44256.932638888888</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
       <c r="E17">
-        <v>6.66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" outlineLevel="2">
-      <c r="B18" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="13">
         <v>44256.932638888888</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" outlineLevel="2">
-      <c r="B19" s="14">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="13">
         <v>44256.932638888888</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19">
-        <v>9.31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" outlineLevel="2">
-      <c r="B20" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="13">
         <v>44256.932638888888</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" outlineLevel="2">
-      <c r="B21" s="14">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="13">
         <v>44256.932638888888</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" outlineLevel="2">
-      <c r="B22" s="14">
-        <v>44256.932638888888</v>
+        <v>10.82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="13">
+        <v>44257.945833333331</v>
       </c>
       <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="13">
+        <v>44257.945833333331</v>
+      </c>
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22">
-        <v>10.82</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" outlineLevel="1">
-      <c r="B23" s="11" t="s">
-        <v>43</v>
+      <c r="D23" t="s">
+        <v>55</v>
       </c>
       <c r="E23">
-        <f>SUBTOTAL(9,E15:E22)</f>
-        <v>90.52000000000001</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="11" t="s">
-        <v>29</v>
+      <c r="B24" s="13">
+        <v>44257.945833333331</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
       </c>
       <c r="E24">
-        <f>SUBTOTAL(9,E2:E22)</f>
-        <v>632.30999999999983</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E17">
-    <sortCondition ref="B2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E16">
+    <sortCondition ref="B3"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C25" xr:uid="{88100AE9-9EAF-BD4E-8082-CA0AFD26AC46}">
+      <formula1>$H$3:$H$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>